--- a/data/VIC_COVID19_DAILY_DATA_20221113.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA_20221113.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid\github\covid19\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DEEB32-40FA-481A-9E7F-281025390E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA403A2-EE7A-48A9-B3EA-362452A4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,244 +457,250 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44814</v>
+        <v>44805</v>
       </c>
       <c r="B2">
-        <v>1718</v>
+        <v>2393</v>
       </c>
       <c r="C2">
-        <v>464</v>
+        <v>566</v>
       </c>
       <c r="D2">
-        <v>1254</v>
+        <v>1827</v>
       </c>
       <c r="E2">
-        <v>215</v>
+        <v>295</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H2">
-        <v>7776</v>
+        <v>8778</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44815</v>
+        <v>44806</v>
       </c>
       <c r="B3">
-        <v>1364</v>
+        <v>2013</v>
       </c>
       <c r="C3">
-        <v>377</v>
+        <v>520</v>
       </c>
       <c r="D3">
-        <v>987</v>
+        <v>1493</v>
       </c>
       <c r="E3">
-        <v>215</v>
+        <v>298</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>6390</v>
+        <v>7518</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44816</v>
+        <v>44807</v>
       </c>
       <c r="B4">
-        <v>1442</v>
+        <v>1519</v>
       </c>
       <c r="C4">
-        <v>256</v>
+        <v>433</v>
       </c>
       <c r="D4">
-        <v>1186</v>
+        <v>1086</v>
       </c>
       <c r="E4">
-        <v>233</v>
+        <v>293</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>6832</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44817</v>
+        <v>44808</v>
       </c>
       <c r="B5">
-        <v>1801</v>
+        <v>1709</v>
       </c>
       <c r="C5">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="D5">
-        <v>1518</v>
+        <v>1394</v>
       </c>
       <c r="E5">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>5837</v>
+        <v>5150</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44818</v>
+        <v>44809</v>
       </c>
       <c r="B6">
-        <v>1871</v>
+        <v>2375</v>
       </c>
       <c r="C6">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="D6">
-        <v>1451</v>
+        <v>1986</v>
       </c>
       <c r="E6">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44819</v>
+        <v>44810</v>
       </c>
       <c r="B7">
-        <v>1796</v>
+        <v>2237</v>
       </c>
       <c r="C7">
-        <v>396</v>
+        <v>545</v>
       </c>
       <c r="D7">
-        <v>1400</v>
+        <v>1692</v>
       </c>
       <c r="E7">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H7">
-        <v>4367</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44820</v>
+        <v>44811</v>
       </c>
       <c r="B8">
-        <v>1717</v>
+        <v>2102</v>
       </c>
       <c r="C8">
-        <v>381</v>
+        <v>468</v>
       </c>
       <c r="D8">
-        <v>1336</v>
+        <v>1634</v>
       </c>
       <c r="E8">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="F8">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>18</v>
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>8213</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44821</v>
+        <v>44812</v>
       </c>
       <c r="B9">
-        <v>1430</v>
+        <v>2106</v>
       </c>
       <c r="C9">
-        <v>366</v>
+        <v>493</v>
       </c>
       <c r="D9">
-        <v>1064</v>
+        <v>1613</v>
       </c>
       <c r="E9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>6996</v>
+        <v>8319</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44822</v>
+        <v>44813</v>
       </c>
       <c r="B10">
-        <v>1129</v>
+        <v>1718</v>
       </c>
       <c r="C10">
-        <v>263</v>
+        <v>464</v>
       </c>
       <c r="D10">
-        <v>866</v>
+        <v>1254</v>
       </c>
       <c r="E10">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>5486</v>
+        <v>7776</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44823</v>
+        <v>44814</v>
       </c>
       <c r="B11">
-        <v>1168</v>
+        <v>1718</v>
       </c>
       <c r="C11">
-        <v>195</v>
+        <v>464</v>
       </c>
       <c r="D11">
-        <v>973</v>
+        <v>1254</v>
       </c>
       <c r="E11">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="F11">
         <v>8</v>
@@ -702,319 +708,325 @@
       <c r="G11">
         <v>5</v>
       </c>
+      <c r="H11">
+        <v>7776</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44824</v>
+        <v>44815</v>
       </c>
       <c r="B12">
-        <v>1628</v>
+        <v>1364</v>
       </c>
       <c r="C12">
-        <v>232</v>
+        <v>377</v>
       </c>
       <c r="D12">
-        <v>1396</v>
+        <v>987</v>
       </c>
       <c r="E12">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G12">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5257</v>
+        <v>6390</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44825</v>
+        <v>44816</v>
       </c>
       <c r="B13">
-        <v>1568</v>
+        <v>1442</v>
       </c>
       <c r="C13">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="D13">
-        <v>1228</v>
+        <v>1186</v>
       </c>
       <c r="E13">
-        <v>144</v>
+        <v>233</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>44826</v>
+        <v>44817</v>
       </c>
       <c r="B14">
-        <v>1492</v>
+        <v>1801</v>
       </c>
       <c r="C14">
-        <v>370</v>
+        <v>283</v>
       </c>
       <c r="D14">
-        <v>1122</v>
+        <v>1518</v>
       </c>
       <c r="E14">
-        <v>138</v>
+        <v>229</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G14">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H14">
-        <v>6872</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44827</v>
+        <v>44818</v>
       </c>
       <c r="B15">
-        <v>1053</v>
+        <v>1871</v>
       </c>
       <c r="C15">
-        <v>247</v>
+        <v>420</v>
       </c>
       <c r="D15">
-        <v>806</v>
+        <v>1451</v>
       </c>
       <c r="E15">
-        <v>150</v>
+        <v>220</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>44828</v>
+        <v>44819</v>
       </c>
       <c r="B16">
-        <v>1124</v>
+        <v>1796</v>
       </c>
       <c r="C16">
-        <v>214</v>
+        <v>396</v>
       </c>
       <c r="D16">
-        <v>910</v>
+        <v>1400</v>
       </c>
       <c r="E16">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H16">
-        <v>4216</v>
+        <v>4367</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44829</v>
+        <v>44820</v>
       </c>
       <c r="B17">
-        <v>1116</v>
+        <v>1717</v>
       </c>
       <c r="C17">
-        <v>304</v>
+        <v>381</v>
       </c>
       <c r="D17">
-        <v>812</v>
+        <v>1336</v>
       </c>
       <c r="E17">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="F17">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>44830</v>
+        <v>44821</v>
       </c>
       <c r="B18">
-        <v>1288</v>
+        <v>1430</v>
       </c>
       <c r="C18">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="D18">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E18">
-        <v>133</v>
+        <v>211</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>6996</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44831</v>
+        <v>44822</v>
       </c>
       <c r="B19">
-        <v>1762</v>
+        <v>1129</v>
       </c>
       <c r="C19">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="D19">
-        <v>1518</v>
+        <v>866</v>
       </c>
       <c r="E19">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="F19">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G19">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>5656</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>44832</v>
+        <v>44823</v>
       </c>
       <c r="B20">
-        <v>1630</v>
+        <v>1168</v>
       </c>
       <c r="C20">
-        <v>353</v>
+        <v>195</v>
       </c>
       <c r="D20">
-        <v>1277</v>
+        <v>973</v>
       </c>
       <c r="E20">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="F20">
         <v>8</v>
       </c>
       <c r="G20">
-        <v>13</v>
-      </c>
-      <c r="H20">
-        <v>7313</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44833</v>
+        <v>44824</v>
       </c>
       <c r="B21">
-        <v>1652</v>
+        <v>1628</v>
       </c>
       <c r="C21">
-        <v>333</v>
+        <v>232</v>
       </c>
       <c r="D21">
-        <v>1319</v>
+        <v>1396</v>
       </c>
       <c r="E21">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>5257</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>44834</v>
+        <v>44825</v>
       </c>
       <c r="B22">
-        <v>1370</v>
+        <v>1568</v>
       </c>
       <c r="C22">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D22">
-        <v>1026</v>
+        <v>1228</v>
       </c>
       <c r="E22">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44835</v>
+        <v>44826</v>
       </c>
       <c r="B23">
-        <v>1426</v>
+        <v>1492</v>
       </c>
       <c r="C23">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="D23">
-        <v>1083</v>
+        <v>1122</v>
       </c>
       <c r="E23">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G23">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="H23">
-        <v>5584</v>
+        <v>6872</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>44836</v>
+        <v>44827</v>
       </c>
       <c r="B24">
-        <v>978</v>
+        <v>1053</v>
       </c>
       <c r="C24">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24">
-        <v>729</v>
+        <v>806</v>
       </c>
       <c r="E24">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F24">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1022,1058 +1034,1280 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44837</v>
+        <v>44828</v>
       </c>
       <c r="B25">
-        <v>1108</v>
+        <v>1124</v>
       </c>
       <c r="C25">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D25">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="E25">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>3711</v>
+        <v>4216</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>44838</v>
+        <v>44829</v>
       </c>
       <c r="B26">
-        <v>1456</v>
+        <v>1116</v>
       </c>
       <c r="C26">
-        <v>168</v>
+        <v>304</v>
       </c>
       <c r="D26">
-        <v>1288</v>
+        <v>812</v>
       </c>
       <c r="E26">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="F26">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G26">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44839</v>
+        <v>44830</v>
       </c>
       <c r="B27">
-        <v>1532</v>
+        <v>1288</v>
       </c>
       <c r="C27">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="D27">
-        <v>1249</v>
+        <v>1069</v>
       </c>
       <c r="E27">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G27">
-        <v>6</v>
-      </c>
-      <c r="H27">
-        <v>6046</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>44840</v>
+        <v>44831</v>
       </c>
       <c r="B28">
-        <v>1443</v>
+        <v>1762</v>
       </c>
       <c r="C28">
-        <v>326</v>
+        <v>244</v>
       </c>
       <c r="D28">
-        <v>1117</v>
+        <v>1518</v>
       </c>
       <c r="E28">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H28">
-        <v>5531</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44841</v>
+        <v>44832</v>
       </c>
       <c r="B29">
-        <v>1236</v>
+        <v>1630</v>
       </c>
       <c r="C29">
-        <v>251</v>
+        <v>353</v>
       </c>
       <c r="D29">
-        <v>985</v>
+        <v>1277</v>
       </c>
       <c r="E29">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F29">
         <v>8</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H29">
-        <v>5903</v>
+        <v>7313</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>44842</v>
+        <v>44833</v>
       </c>
       <c r="B30">
-        <v>1202</v>
+        <v>1652</v>
       </c>
       <c r="C30">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="D30">
-        <v>912</v>
+        <v>1319</v>
       </c>
       <c r="E30">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44843</v>
+        <v>44834</v>
       </c>
       <c r="B31">
-        <v>819</v>
+        <v>1370</v>
       </c>
       <c r="C31">
-        <v>188</v>
+        <v>344</v>
       </c>
       <c r="D31">
-        <v>631</v>
+        <v>1026</v>
       </c>
       <c r="E31">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>4344</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>44844</v>
+        <v>44835</v>
       </c>
       <c r="B32">
-        <v>1039</v>
+        <v>1426</v>
       </c>
       <c r="C32">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="D32">
-        <v>906</v>
+        <v>1083</v>
       </c>
       <c r="E32">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>5584</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44845</v>
+        <v>44836</v>
       </c>
       <c r="B33">
-        <v>1292</v>
+        <v>978</v>
       </c>
       <c r="C33">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="D33">
-        <v>1072</v>
+        <v>729</v>
       </c>
       <c r="E33">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="F33">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>14</v>
-      </c>
-      <c r="H33">
-        <v>4276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>44846</v>
+        <v>44837</v>
       </c>
       <c r="B34">
-        <v>1319</v>
+        <v>1108</v>
       </c>
       <c r="C34">
-        <v>289</v>
+        <v>207</v>
       </c>
       <c r="D34">
-        <v>1030</v>
+        <v>901</v>
       </c>
       <c r="E34">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>6027</v>
+        <v>3711</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>44847</v>
+        <v>44838</v>
       </c>
       <c r="B35">
-        <v>1237</v>
+        <v>1456</v>
       </c>
       <c r="C35">
-        <v>284</v>
+        <v>168</v>
       </c>
       <c r="D35">
-        <v>953</v>
+        <v>1288</v>
       </c>
       <c r="E35">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="F35">
         <v>8</v>
       </c>
       <c r="G35">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>44848</v>
+        <v>44839</v>
       </c>
       <c r="B36">
-        <v>1148</v>
+        <v>1532</v>
       </c>
       <c r="C36">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="D36">
-        <v>895</v>
+        <v>1249</v>
       </c>
       <c r="E36">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F36">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>5397</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>44849</v>
+        <v>44840</v>
       </c>
       <c r="B37">
-        <v>936</v>
+        <v>1443</v>
       </c>
       <c r="C37">
-        <v>237</v>
+        <v>326</v>
       </c>
       <c r="D37">
-        <v>699</v>
+        <v>1117</v>
       </c>
       <c r="E37">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F37">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H37">
-        <v>5397</v>
+        <v>5531</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>44850</v>
+        <v>44841</v>
       </c>
       <c r="B38">
-        <v>621</v>
+        <v>1236</v>
       </c>
       <c r="C38">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="D38">
-        <v>420</v>
+        <v>985</v>
       </c>
       <c r="E38">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="F38">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H38">
-        <v>3063</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>44851</v>
+        <v>44842</v>
       </c>
       <c r="B39">
-        <v>800</v>
+        <v>1202</v>
       </c>
       <c r="C39">
-        <v>157</v>
+        <v>290</v>
       </c>
       <c r="D39">
-        <v>643</v>
+        <v>912</v>
       </c>
       <c r="E39">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>2778</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>44852</v>
+        <v>44843</v>
       </c>
       <c r="B40">
-        <v>1087</v>
+        <v>819</v>
       </c>
       <c r="C40">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="D40">
-        <v>807</v>
+        <v>631</v>
       </c>
       <c r="E40">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F40">
         <v>8</v>
       </c>
       <c r="G40">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>5816</v>
+        <v>4344</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>44853</v>
+        <v>44844</v>
       </c>
       <c r="B41">
-        <v>1206</v>
+        <v>1039</v>
       </c>
       <c r="C41">
-        <v>326</v>
+        <v>133</v>
       </c>
       <c r="D41">
-        <v>880</v>
+        <v>906</v>
       </c>
       <c r="E41">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G41">
-        <v>3</v>
-      </c>
-      <c r="H41">
-        <v>5667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>44854</v>
+        <v>44845</v>
       </c>
       <c r="B42">
-        <v>1093</v>
+        <v>1292</v>
       </c>
       <c r="C42">
-        <v>340</v>
+        <v>220</v>
       </c>
       <c r="D42">
-        <v>753</v>
+        <v>1072</v>
       </c>
       <c r="E42">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="F42">
         <v>7</v>
       </c>
       <c r="G42">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H42">
-        <v>5130</v>
+        <v>4276</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>44855</v>
+        <v>44846</v>
       </c>
       <c r="B43">
-        <v>1081</v>
+        <v>1319</v>
       </c>
       <c r="C43">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="D43">
-        <v>749</v>
+        <v>1030</v>
       </c>
       <c r="E43">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="F43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G43">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="H43">
-        <v>4762</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>44856</v>
+        <v>44847</v>
       </c>
       <c r="B44">
-        <v>1076</v>
+        <v>1237</v>
       </c>
       <c r="C44">
-        <v>341</v>
+        <v>284</v>
       </c>
       <c r="D44">
-        <v>735</v>
+        <v>953</v>
       </c>
       <c r="E44">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G44">
-        <v>16</v>
-      </c>
-      <c r="H44">
-        <v>4607</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44857</v>
+        <v>44848</v>
       </c>
       <c r="B45">
-        <v>949</v>
+        <v>1148</v>
       </c>
       <c r="C45">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="D45">
-        <v>653</v>
+        <v>895</v>
       </c>
       <c r="E45">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
         <v>5</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
-        <v>3730</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>44858</v>
+        <v>44849</v>
       </c>
       <c r="B46">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="C46">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="D46">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="E46">
-        <v>174</v>
+        <v>133</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>2803</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>44859</v>
+        <v>44850</v>
       </c>
       <c r="B47">
-        <v>1509</v>
+        <v>621</v>
       </c>
       <c r="C47">
-        <v>398</v>
+        <v>201</v>
       </c>
       <c r="D47">
-        <v>1111</v>
+        <v>420</v>
       </c>
       <c r="E47">
-        <v>186</v>
+        <v>132</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G47">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>7066</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>44860</v>
+        <v>44851</v>
       </c>
       <c r="B48">
-        <v>1549</v>
+        <v>800</v>
       </c>
       <c r="C48">
-        <v>442</v>
+        <v>157</v>
       </c>
       <c r="D48">
-        <v>1107</v>
+        <v>643</v>
       </c>
       <c r="E48">
-        <v>182</v>
+        <v>153</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G48">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>5844</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>44861</v>
+        <v>44852</v>
       </c>
       <c r="B49">
-        <v>1483</v>
+        <v>1087</v>
       </c>
       <c r="C49">
-        <v>455</v>
+        <v>280</v>
       </c>
       <c r="D49">
-        <v>1028</v>
+        <v>807</v>
       </c>
       <c r="E49">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G49">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H49">
-        <v>5449</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>44862</v>
+        <v>44853</v>
       </c>
       <c r="B50">
-        <v>1375</v>
+        <v>1206</v>
       </c>
       <c r="C50">
-        <v>398</v>
+        <v>326</v>
       </c>
       <c r="D50">
-        <v>977</v>
+        <v>880</v>
       </c>
       <c r="E50">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="F50">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G50">
         <v>3</v>
       </c>
       <c r="H50">
-        <v>5553</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>44863</v>
+        <v>44854</v>
       </c>
       <c r="B51">
-        <v>1350</v>
+        <v>1093</v>
       </c>
       <c r="C51">
-        <v>415</v>
+        <v>340</v>
       </c>
       <c r="D51">
-        <v>935</v>
+        <v>753</v>
       </c>
       <c r="E51">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="F51">
+        <v>7</v>
+      </c>
+      <c r="G51">
         <v>6</v>
       </c>
-      <c r="G51">
-        <v>3</v>
-      </c>
       <c r="H51">
-        <v>4788</v>
+        <v>5130</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>44864</v>
+        <v>44855</v>
       </c>
       <c r="B52">
-        <v>1135</v>
+        <v>1081</v>
       </c>
       <c r="C52">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="D52">
-        <v>867</v>
+        <v>749</v>
       </c>
       <c r="E52">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="F52">
         <v>7</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H52">
-        <v>3146</v>
+        <v>4762</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>44865</v>
+        <v>44856</v>
       </c>
       <c r="B53">
-        <v>1654</v>
+        <v>1076</v>
       </c>
       <c r="C53">
-        <v>389</v>
+        <v>341</v>
       </c>
       <c r="D53">
-        <v>1265</v>
+        <v>735</v>
       </c>
       <c r="E53">
-        <v>220</v>
+        <v>147</v>
       </c>
       <c r="F53">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H53">
-        <v>5414</v>
+        <v>4607</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>44866</v>
+        <v>44857</v>
       </c>
       <c r="B54">
-        <v>1683</v>
+        <v>949</v>
       </c>
       <c r="C54">
-        <v>516</v>
+        <v>296</v>
       </c>
       <c r="D54">
-        <v>1167</v>
+        <v>653</v>
       </c>
       <c r="E54">
-        <v>230</v>
+        <v>157</v>
       </c>
       <c r="F54">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>5277</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>44867</v>
+        <v>44858</v>
       </c>
       <c r="B55">
-        <v>1880</v>
+        <v>920</v>
       </c>
       <c r="C55">
-        <v>378</v>
+        <v>189</v>
       </c>
       <c r="D55">
-        <v>1502</v>
+        <v>731</v>
       </c>
       <c r="E55">
-        <v>255</v>
+        <v>174</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>4308</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>44868</v>
+        <v>44859</v>
       </c>
       <c r="B56">
-        <v>2091</v>
+        <v>1509</v>
       </c>
       <c r="C56">
-        <v>629</v>
+        <v>398</v>
       </c>
       <c r="D56">
-        <v>1462</v>
+        <v>1111</v>
       </c>
       <c r="E56">
-        <v>256</v>
+        <v>186</v>
       </c>
       <c r="F56">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H56">
-        <v>6162</v>
+        <v>7066</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>44869</v>
+        <v>44860</v>
       </c>
       <c r="B57">
-        <v>1892</v>
+        <v>1549</v>
       </c>
       <c r="C57">
-        <v>511</v>
+        <v>442</v>
       </c>
       <c r="D57">
-        <v>1381</v>
+        <v>1107</v>
       </c>
       <c r="E57">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="F57">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G57">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H57">
-        <v>5975</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>44870</v>
+        <v>44861</v>
       </c>
       <c r="B58">
-        <v>1713</v>
+        <v>1483</v>
       </c>
       <c r="C58">
-        <v>517</v>
+        <v>455</v>
       </c>
       <c r="D58">
-        <v>1196</v>
+        <v>1028</v>
       </c>
       <c r="E58">
-        <v>250</v>
+        <v>181</v>
       </c>
       <c r="F58">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H58">
-        <v>4772</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>44871</v>
+        <v>44862</v>
       </c>
       <c r="B59">
-        <v>1871</v>
+        <v>1375</v>
       </c>
       <c r="C59">
-        <v>415</v>
+        <v>398</v>
       </c>
       <c r="D59">
-        <v>1456</v>
+        <v>977</v>
       </c>
       <c r="E59">
-        <v>274</v>
+        <v>191</v>
       </c>
       <c r="F59">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H59">
-        <v>4772</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>44872</v>
+        <v>44863</v>
       </c>
       <c r="B60">
-        <v>2709</v>
+        <v>1350</v>
       </c>
       <c r="C60">
-        <v>536</v>
+        <v>415</v>
       </c>
       <c r="D60">
-        <v>2173</v>
+        <v>935</v>
       </c>
       <c r="E60">
-        <v>284</v>
+        <v>212</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H60">
-        <v>4648</v>
+        <v>4788</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>44873</v>
+        <v>44864</v>
       </c>
       <c r="B61">
-        <v>3373</v>
+        <v>1135</v>
       </c>
       <c r="C61">
-        <v>858</v>
+        <v>268</v>
       </c>
       <c r="D61">
-        <v>2515</v>
+        <v>867</v>
       </c>
       <c r="E61">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="F61">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G61">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>8168</v>
+        <v>3146</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>44874</v>
+        <v>44865</v>
       </c>
       <c r="B62">
-        <v>3057</v>
+        <v>1654</v>
       </c>
       <c r="C62">
-        <v>864</v>
+        <v>389</v>
       </c>
       <c r="D62">
-        <v>2193</v>
+        <v>1265</v>
       </c>
       <c r="E62">
-        <v>279</v>
+        <v>220</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>6731</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>44875</v>
+        <v>44866</v>
       </c>
       <c r="B63">
-        <v>2766</v>
+        <v>1683</v>
       </c>
       <c r="C63">
-        <v>724</v>
+        <v>516</v>
       </c>
       <c r="D63">
-        <v>2042</v>
+        <v>1167</v>
       </c>
       <c r="E63">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="F63">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G63">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>6340</v>
+        <v>5277</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>44876</v>
+        <v>44867</v>
       </c>
       <c r="B64">
-        <v>2993</v>
+        <v>1880</v>
       </c>
       <c r="C64">
-        <v>774</v>
+        <v>378</v>
       </c>
       <c r="D64">
-        <v>2219</v>
+        <v>1502</v>
       </c>
       <c r="E64">
-        <v>331</v>
+        <v>255</v>
       </c>
       <c r="F64">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H64">
-        <v>6587</v>
+        <v>4308</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>44877</v>
+        <v>44868</v>
       </c>
       <c r="B65">
-        <v>2363</v>
+        <v>2091</v>
       </c>
       <c r="C65">
-        <v>681</v>
+        <v>629</v>
       </c>
       <c r="D65">
-        <v>1682</v>
+        <v>1462</v>
       </c>
       <c r="E65">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="F65">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>44869</v>
+      </c>
+      <c r="B66">
+        <v>1892</v>
+      </c>
+      <c r="C66">
+        <v>511</v>
+      </c>
+      <c r="D66">
+        <v>1381</v>
+      </c>
+      <c r="E66">
+        <v>245</v>
+      </c>
+      <c r="F66">
+        <v>9</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>44870</v>
+      </c>
+      <c r="B67">
+        <v>1713</v>
+      </c>
+      <c r="C67">
+        <v>517</v>
+      </c>
+      <c r="D67">
+        <v>1196</v>
+      </c>
+      <c r="E67">
+        <v>250</v>
+      </c>
+      <c r="F67">
+        <v>9</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>44871</v>
+      </c>
+      <c r="B68">
+        <v>1871</v>
+      </c>
+      <c r="C68">
+        <v>415</v>
+      </c>
+      <c r="D68">
+        <v>1456</v>
+      </c>
+      <c r="E68">
+        <v>274</v>
+      </c>
+      <c r="F68">
+        <v>16</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>44872</v>
+      </c>
+      <c r="B69">
+        <v>2709</v>
+      </c>
+      <c r="C69">
+        <v>536</v>
+      </c>
+      <c r="D69">
+        <v>2173</v>
+      </c>
+      <c r="E69">
+        <v>284</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+      <c r="G69">
+        <v>6</v>
+      </c>
+      <c r="H69">
+        <v>4648</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>44873</v>
+      </c>
+      <c r="B70">
+        <v>3373</v>
+      </c>
+      <c r="C70">
+        <v>858</v>
+      </c>
+      <c r="D70">
+        <v>2515</v>
+      </c>
+      <c r="E70">
+        <v>301</v>
+      </c>
+      <c r="F70">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>16</v>
+      </c>
+      <c r="H70">
+        <v>8168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>44874</v>
+      </c>
+      <c r="B71">
+        <v>3057</v>
+      </c>
+      <c r="C71">
+        <v>864</v>
+      </c>
+      <c r="D71">
+        <v>2193</v>
+      </c>
+      <c r="E71">
+        <v>279</v>
+      </c>
+      <c r="F71">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>9</v>
+      </c>
+      <c r="H71">
+        <v>6731</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>44875</v>
+      </c>
+      <c r="B72">
+        <v>2766</v>
+      </c>
+      <c r="C72">
+        <v>724</v>
+      </c>
+      <c r="D72">
+        <v>2042</v>
+      </c>
+      <c r="E72">
+        <v>277</v>
+      </c>
+      <c r="F72">
+        <v>8</v>
+      </c>
+      <c r="G72">
+        <v>6</v>
+      </c>
+      <c r="H72">
+        <v>6340</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>44876</v>
+      </c>
+      <c r="B73">
+        <v>2993</v>
+      </c>
+      <c r="C73">
+        <v>774</v>
+      </c>
+      <c r="D73">
+        <v>2219</v>
+      </c>
+      <c r="E73">
+        <v>331</v>
+      </c>
+      <c r="F73">
+        <v>5</v>
+      </c>
+      <c r="G73">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>6587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>44877</v>
+      </c>
+      <c r="B74">
+        <v>2363</v>
+      </c>
+      <c r="C74">
+        <v>681</v>
+      </c>
+      <c r="D74">
+        <v>1682</v>
+      </c>
+      <c r="E74">
+        <v>340</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
         <v>5076</v>
       </c>
     </row>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/VIC_COVID19_DAILY_DATA_20221113.xlsx
+++ b/data/VIC_COVID19_DAILY_DATA_20221113.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\covid\github\covid19\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA403A2-EE7A-48A9-B3EA-362452A4CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE47A72C-7B8D-439A-9905-3D22282E3414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E17AFEF4-1749-4785-AE99-0E02D8C0747B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA51717A-24DA-46B2-B9D4-0FDC25CE10F4}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -2305,10 +2300,8 @@
         <v>5076</v>
       </c>
     </row>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>